--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/houser/Library/Mobile Documents/com~apple~CloudDocs/cos470/usm-cos470.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD03190F-D730-C341-A7A5-B22B6B43EDD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AE617B-50AB-8F49-9249-573A6E7D96C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12700" yWindow="7080" windowWidth="24520" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,18 +52,9 @@
     <t>iOS (Swift)</t>
   </si>
   <si>
-    <t>Project 0 - GitHub Due</t>
-  </si>
-  <si>
     <t>Android (Kotlin)</t>
   </si>
   <si>
-    <t>Project 1 - iOS Due</t>
-  </si>
-  <si>
-    <t>Project 2 - Android Due</t>
-  </si>
-  <si>
     <t>Hybrid Development (JavaScript)</t>
   </si>
   <si>
@@ -85,12 +76,6 @@
     <t>Presentations</t>
   </si>
   <si>
-    <t>Project 4 - Choice Due</t>
-  </si>
-  <si>
-    <t>Project 3 - Hybrid Due</t>
-  </si>
-  <si>
     <t>iOS (Swift) Basics Xcode</t>
   </si>
   <si>
@@ -149,6 +134,21 @@
   </si>
   <si>
     <t>[Fluid UI Wireframing](https://www.fluidui.com/editor/live/), [Planning Screens and their Relationships](https://developer.android.com/training/design-navigation/screen-planning.html)</t>
+  </si>
+  <si>
+    <t>[Project 2 - Android Due](/projects/project-2-android-tasklist)</t>
+  </si>
+  <si>
+    <t>[Project 1 - iOS Due](/projects/project-1-ios-tasklist)</t>
+  </si>
+  <si>
+    <t>[Project 0 - GitHub Due](/projects/project-0-github)</t>
+  </si>
+  <si>
+    <t>[Project 3 - Hybrid Due](/projects/project-3-react-native-tasklist)</t>
+  </si>
+  <si>
+    <t>[Project 4 - Your App Here](/projects/poject-4-student-choice)</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -599,10 +599,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -620,13 +620,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -647,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1" ht="119" x14ac:dyDescent="0.2">
@@ -665,13 +665,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -689,10 +689,10 @@
         <v>6</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1" ht="119" x14ac:dyDescent="0.2">
@@ -710,10 +710,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="8" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -731,13 +731,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -752,7 +752,7 @@
         <v>43908.232638888891</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -770,10 +770,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -791,10 +791,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1" ht="119" x14ac:dyDescent="0.2">
@@ -812,10 +812,10 @@
         <v>11</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1" ht="153" x14ac:dyDescent="0.2">
@@ -833,13 +833,13 @@
         <v>12</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -857,10 +857,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -878,7 +878,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F16" s="9"/>
     </row>
@@ -897,7 +897,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F17" s="9"/>
     </row>
@@ -916,11 +916,11 @@
         <v>7</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="8" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
